--- a/data/trans_orig/INICIO_TABACO-Clase-trans_orig.xlsx
+++ b/data/trans_orig/INICIO_TABACO-Clase-trans_orig.xlsx
@@ -562,47 +562,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
         </is>
       </c>
     </row>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>17,79</t>
+          <t>17,61</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>17,93</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>18,68</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>17,47</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>17,38</t>
+          <t>18,36</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>17,15</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>17,69</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>18,31</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>17,62</t>
+          <t>17,89</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>17,59</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>18,22</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>17,8</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17,08; 18,73</t>
+          <t>17,08; 18,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>18,2; 19,5</t>
+          <t>17,24; 18,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>17,07; 17,91</t>
+          <t>18,15; 19,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,64; 19,13</t>
+          <t>17,71; 19,32</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,17; 18,35</t>
+          <t>16,42; 18,1</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,77; 19,05</t>
+          <t>17,17; 18,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>17,07; 18,39</t>
+          <t>17,49; 18,37</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>17,79; 18,62</t>
+          <t>17,07; 18,2</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,46; 18,19</t>
+          <t>17,84; 18,74</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>18,01</t>
+          <t>17,13</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>18,12</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>17,41</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>17,12</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17,76</t>
+          <t>17,2</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>17,71</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>18,38</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>17,27</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>17,89</t>
+          <t>17,16</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>17,91</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>17,95</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>17,19</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,03; 19,7</t>
+          <t>16,51; 17,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,89; 18,18</t>
+          <t>17,12; 20,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,71; 17,63</t>
+          <t>16,84; 18,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,81; 19,76</t>
+          <t>16,71; 17,77</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,83; 19,17</t>
+          <t>16,62; 19,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,89; 17,72</t>
+          <t>17,85; 19,16</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>17,15; 19,03</t>
+          <t>16,76; 17,63</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,57; 18,51</t>
+          <t>17,15; 19,26</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,89; 17,54</t>
+          <t>17,52; 18,48</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>16,98</t>
+          <t>16,06</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>17,15</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>17,06</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>16,18</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>19,09</t>
+          <t>17,06</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>18,62</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>18,65</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>17,04</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>17,52</t>
+          <t>16,12</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>17,53</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>17,43</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>16,31</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,28; 18,09</t>
+          <t>15,65; 16,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,15; 17,93</t>
+          <t>16,42; 18,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>15,83; 16,55</t>
+          <t>16,28; 17,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,56; 21,92</t>
+          <t>16,12; 18,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,05; 22,32</t>
+          <t>17,37; 21,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,32; 17,77</t>
+          <t>16,98; 22,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>16,8; 18,61</t>
+          <t>15,66; 16,53</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,68; 18,48</t>
+          <t>16,84; 18,6</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,02; 16,65</t>
+          <t>16,64; 18,5</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>17,03</t>
+          <t>16,4</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>16,85</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>17,62</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>16,47</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17,29</t>
+          <t>17,12</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>18,49</t>
+          <t>17,14</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>17,2</t>
+          <t>18,5</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>17,14</t>
+          <t>16,67</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>17,97</t>
+          <t>16,98</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>16,74</t>
+          <t>17,98</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,46; 17,95</t>
+          <t>15,99; 16,76</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,94; 18,34</t>
+          <t>16,29; 17,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,23; 16,74</t>
+          <t>16,97; 18,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,59; 18,38</t>
+          <t>16,69; 17,81</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,72; 19,55</t>
+          <t>16,54; 18,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,85; 17,66</t>
+          <t>17,76; 19,69</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,64; 17,77</t>
+          <t>16,34; 17,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,45; 18,54</t>
+          <t>16,55; 17,55</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,53; 16,95</t>
+          <t>17,46; 18,65</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>16,33</t>
+          <t>16,96</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>16,28</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>17,88</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>16,47</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>17,77</t>
+          <t>17,76</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>17,6</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>19,18</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>17,38</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>16,96</t>
+          <t>17,4</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>16,84</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>18,54</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>16,91</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>15,75; 16,98</t>
+          <t>16,12; 18,55</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,63; 19,84</t>
+          <t>15,61; 16,97</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>15,98; 17,14</t>
+          <t>16,66; 20,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>16,91; 19,02</t>
+          <t>17,23; 18,39</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>17,44; 21,57</t>
+          <t>16,83; 18,73</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>17,02; 17,77</t>
+          <t>17,39; 21,51</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>16,41; 17,52</t>
+          <t>16,83; 18,04</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>17,33; 19,96</t>
+          <t>16,29; 17,43</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>16,62; 17,34</t>
+          <t>17,35; 20,0</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>17,13</t>
+          <t>16,85</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>15,52</t>
+          <t>17,26</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>16,34</t>
+          <t>15,54</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>15,57</t>
+          <t>17,69</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>17,41</t>
+          <t>15,81</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>17,51</t>
+          <t>17,44</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>16,66</t>
+          <t>17,5</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>16,55</t>
+          <t>16,75</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>17,28</t>
+          <t>16,57</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>15,59; 20,73</t>
+          <t>15,97; 19,11</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>14,54; 16,22</t>
+          <t>15,63; 20,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>15,49; 17,72</t>
+          <t>14,53; 16,29</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>16,97; 18,97</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>15,0; 16,0</t>
         </is>
       </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>16,32; 19,3</t>
-        </is>
-      </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>16,97; 18,37</t>
+          <t>16,24; 19,41</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>15,74; 19,33</t>
+          <t>16,91; 18,7</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>15,76; 17,69</t>
+          <t>15,77; 19,94</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>16,81; 18,03</t>
+          <t>15,78; 17,65</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>16,62</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
           <t>17,18</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="E16" s="2" t="inlineStr">
         <is>
           <t>17,76</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>16,64</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>17,65</t>
+          <t>17,55</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>17,47</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>18,25</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>17,44</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>17,37</t>
+          <t>16,95</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
+          <t>17,31</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>17,98</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>16,97</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16,81; 17,57</t>
+          <t>16,29; 16,92</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>17,44; 18,15</t>
+          <t>16,84; 17,63</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>16,47; 16,83</t>
+          <t>17,43; 18,13</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>17,17; 18,25</t>
+          <t>17,26; 17,85</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>17,89; 18,68</t>
+          <t>17,02; 17,97</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>17,23; 17,64</t>
+          <t>17,9; 18,73</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>17,11; 17,69</t>
+          <t>16,61; 17,19</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>17,74; 18,3</t>
+          <t>17,02; 17,65</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>16,83; 17,1</t>
+          <t>17,73; 18,27</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/INICIO_TABACO-Clase-trans_orig.xlsx
+++ b/data/trans_orig/INICIO_TABACO-Clase-trans_orig.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Edad media en la que empezaron a consumir tabaco en años</t>
+          <t>Edad media en la que empezaron a consumir tabaco en años (tasa de respuesta: 98,19%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/INICIO_TABACO-Clase-trans_orig.xlsx
+++ b/data/trans_orig/INICIO_TABACO-Clase-trans_orig.xlsx
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17,08; 18,17</t>
+          <t>17,11; 18,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>18,15; 19,39</t>
+          <t>18,13; 19,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,71; 19,32</t>
+          <t>17,67; 19,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,17; 18,36</t>
+          <t>17,24; 18,34</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>17,49; 18,37</t>
+          <t>17,49; 18,36</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>17,84; 18,74</t>
+          <t>17,79; 18,71</t>
         </is>
       </c>
     </row>
@@ -795,7 +795,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,51; 17,87</t>
+          <t>16,5; 17,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -805,12 +805,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,84; 18,11</t>
+          <t>16,89; 18,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,71; 17,77</t>
+          <t>16,72; 17,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -820,12 +820,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,85; 19,16</t>
+          <t>17,82; 19,11</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>16,76; 17,63</t>
+          <t>16,73; 17,61</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,52; 18,48</t>
+          <t>17,52; 18,46</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,65; 16,53</t>
+          <t>15,65; 16,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -915,12 +915,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,28; 17,99</t>
+          <t>16,29; 18,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,12; 18,29</t>
+          <t>15,99; 18,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -930,12 +930,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,98; 22,36</t>
+          <t>17,03; 22,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>15,66; 16,53</t>
+          <t>15,77; 16,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,64; 18,5</t>
+          <t>16,59; 18,48</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,99; 16,76</t>
+          <t>16,04; 16,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1025,12 +1025,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>16,97; 18,44</t>
+          <t>16,98; 18,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,69; 17,81</t>
+          <t>16,66; 17,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1040,12 +1040,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,76; 19,69</t>
+          <t>17,66; 19,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,34; 17,0</t>
+          <t>16,35; 17,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,46; 18,65</t>
+          <t>17,47; 18,57</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16,12; 18,55</t>
+          <t>16,13; 18,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1135,12 +1135,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,66; 20,06</t>
+          <t>16,6; 19,91</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,23; 18,39</t>
+          <t>17,28; 18,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1150,12 +1150,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>17,39; 21,51</t>
+          <t>17,53; 21,76</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>16,83; 18,04</t>
+          <t>16,92; 18,13</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>17,35; 20,0</t>
+          <t>17,41; 20,27</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>15,97; 19,11</t>
+          <t>16,02; 19,29</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1245,12 +1245,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,53; 16,29</t>
+          <t>14,62; 16,31</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>16,97; 18,97</t>
+          <t>17,01; 19,0</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1260,12 +1260,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>16,24; 19,41</t>
+          <t>16,29; 19,7</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>16,91; 18,7</t>
+          <t>16,89; 18,5</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>15,78; 17,65</t>
+          <t>15,72; 17,66</t>
         </is>
       </c>
     </row>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16,29; 16,92</t>
+          <t>16,28; 16,91</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1355,12 +1355,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>17,43; 18,13</t>
+          <t>17,42; 18,13</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>17,26; 17,85</t>
+          <t>17,26; 17,86</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1370,12 +1370,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>17,9; 18,73</t>
+          <t>17,88; 18,71</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>16,61; 17,19</t>
+          <t>16,58; 17,2</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>17,73; 18,27</t>
+          <t>17,72; 18,26</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/INICIO_TABACO-Clase-trans_orig.xlsx
+++ b/data/trans_orig/INICIO_TABACO-Clase-trans_orig.xlsx
@@ -567,42 +567,42 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -637,42 +637,42 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>18,68</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>17,93</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>18,68</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>18,36</t>
+          <t>18,39</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>17,69</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>17,15</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>17,69</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>17,89</t>
+          <t>17,9</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>18,22</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>17,59</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>18,22</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17,11; 18,17</t>
+          <t>17,14; 18,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>18,13; 19,44</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>17,24; 18,76</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>18,13; 19,44</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>17,67; 19,33</t>
+          <t>17,72; 19,39</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>17,24; 18,34</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>16,42; 18,1</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>17,24; 18,34</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>17,49; 18,36</t>
+          <t>17,51; 18,33</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
+          <t>17,79; 18,71</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>17,07; 18,2</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>17,79; 18,71</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>17,13</t>
+          <t>17,15</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>17,41</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>18,12</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>17,41</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17,2</t>
+          <t>17,23</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>18,38</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>17,71</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>18,38</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>17,16</t>
+          <t>17,18</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>17,95</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>17,91</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>17,95</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,5; 17,78</t>
+          <t>16,63; 17,79</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>16,89; 18,2</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>17,12; 20,5</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>16,89; 18,2</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,72; 17,72</t>
+          <t>16,76; 17,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>17,82; 19,11</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>16,62; 19,72</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>17,82; 19,11</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>16,73; 17,61</t>
+          <t>16,79; 17,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
+          <t>17,52; 18,46</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>17,15; 19,26</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>17,52; 18,46</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>16,06</t>
+          <t>16,13</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>17,06</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>17,15</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>17,06</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>17,06</t>
+          <t>17,05</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>18,65</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>18,62</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>18,65</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>16,12</t>
+          <t>16,29</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>17,43</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>17,53</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>17,43</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,65; 16,52</t>
+          <t>15,6; 16,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
+          <t>16,29; 18,18</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>16,42; 18,36</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>16,29; 18,18</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,99; 18,31</t>
+          <t>15,93; 18,38</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>17,03; 22,09</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>17,37; 21,99</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>17,03; 22,09</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>15,77; 16,6</t>
+          <t>15,84; 16,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>16,59; 18,48</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>16,84; 18,6</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>16,59; 18,48</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>16,4</t>
+          <t>16,49</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>17,62</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>16,85</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>17,62</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17,12</t>
+          <t>17,32</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>18,5</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>17,14</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>18,5</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>16,67</t>
+          <t>16,8</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>17,98</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>16,98</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>17,98</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,04; 16,82</t>
+          <t>16,15; 16,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
+          <t>16,98; 18,38</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>16,29; 17,61</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>16,98; 18,38</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,66; 17,87</t>
+          <t>16,87; 18,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>17,66; 19,53</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>16,54; 18,16</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>17,66; 19,53</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,35; 17,02</t>
+          <t>16,51; 17,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
+          <t>17,47; 18,57</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>16,55; 17,55</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>17,47; 18,57</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>16,96</t>
+          <t>16,97</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>17,88</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>16,28</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>17,88</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>17,76</t>
+          <t>17,9</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>19,18</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>17,6</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>19,18</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>17,4</t>
+          <t>17,49</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>18,54</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>16,84</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>18,54</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16,13; 18,69</t>
+          <t>16,25; 18,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
+          <t>16,6; 19,91</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>15,61; 16,97</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>16,6; 19,91</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,28; 18,34</t>
+          <t>17,41; 18,51</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>17,53; 21,76</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>16,83; 18,73</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>17,53; 21,76</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>16,92; 18,13</t>
+          <t>17,04; 18,15</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
+          <t>17,41; 20,27</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>16,29; 17,43</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>17,41; 20,27</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>16,85</t>
+          <t>16,81</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
+          <t>15,54</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>17,26</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>15,54</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>17,69</t>
+          <t>17,7</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>17,44</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>15,81</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>17,44</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>17,5</t>
+          <t>17,51</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
+          <t>16,57</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>16,75</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>16,57</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>16,02; 19,29</t>
+          <t>15,99; 19,25</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
+          <t>14,62; 16,31</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>15,63; 20,21</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>14,62; 16,31</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>17,01; 19,0</t>
+          <t>17,0; 19,05</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>16,29; 19,7</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>15,0; 16,0</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>16,29; 19,7</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>16,89; 18,5</t>
+          <t>16,88; 18,61</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
+          <t>15,72; 17,66</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>15,77; 19,94</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>15,72; 17,66</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>16,62</t>
+          <t>16,82</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
+          <t>17,76</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>17,18</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>17,76</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>17,55</t>
+          <t>17,64</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>18,25</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>17,47</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>18,25</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>16,95</t>
+          <t>17,17</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
+          <t>17,98</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>17,31</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>17,98</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16,28; 16,91</t>
+          <t>16,59; 17,08</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
+          <t>17,42; 18,13</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>16,84; 17,63</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>17,42; 18,13</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>17,26; 17,86</t>
+          <t>17,36; 17,97</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
+          <t>17,88; 18,71</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>17,02; 17,97</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>17,88; 18,71</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>16,58; 17,2</t>
+          <t>16,99; 17,37</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
+          <t>17,72; 18,26</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>17,02; 17,65</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>17,72; 18,26</t>
         </is>
       </c>
     </row>
